--- a/stock_list.xlsx
+++ b/stock_list.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,9 +47,6 @@
     <t>AMZN</t>
   </si>
   <si>
-    <t>META</t>
-  </si>
-  <si>
     <t>GOOGL</t>
   </si>
   <si>
@@ -62,9 +62,6 @@
     <t>TSLA</t>
   </si>
   <si>
-    <t>JPM</t>
-  </si>
-  <si>
     <t>LLY</t>
   </si>
   <si>
@@ -116,10 +113,16 @@
     <t>CVX</t>
   </si>
   <si>
-    <t>WFC</t>
-  </si>
-  <si>
     <t>CSCO</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>IBM</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +145,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -620,133 +616,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1283,8 +1279,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1435,16 +1431,19 @@
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A31" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
